--- a/spliced/falling/2023-03-25_18-01-29/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-29/gyroscope_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,233 +452,222 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.0395535230636596</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0210748501121997</v>
+        <v>-0.0198531206697225</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0496328026056289</v>
+        <v>-0.0239764600992202</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.0119118718430399</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0239764600992202</v>
+        <v>0.0210748501121997</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0226020142436027</v>
+        <v>-0.0496328026056289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0048869219608604</v>
+        <v>0.0119118718430399</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.0102319931611418</v>
+        <v>0.0239764600992202</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0267253536731004</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-0.1745547503232956</v>
+        <v>0.0048869219608604</v>
       </c>
       <c r="B5" t="n">
-        <v>0.1945605874061584</v>
+        <v>-0.0102319931611418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0557414554059505</v>
+        <v>0.0267253536731004</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1134682223200798</v>
+        <v>-0.1745547503232956</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6869179606437683</v>
+        <v>0.1945605874061584</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2023491114377975</v>
+        <v>0.0557414554059505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1960877478122711</v>
+        <v>-0.1134682223200798</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6270532011985779</v>
+        <v>0.6869179606437683</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.06856962293386459</v>
+        <v>-0.2023491114377975</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6217080950737</v>
+        <v>-0.1960877478122711</v>
       </c>
       <c r="B8" t="n">
-        <v>0.2063197344541549</v>
+        <v>0.6270532011985779</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.041983366012573</v>
+        <v>-0.06856962293386459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.1171334087848663</v>
+        <v>0.6217080950737</v>
       </c>
       <c r="B9" t="n">
-        <v>1.447597861289978</v>
+        <v>0.2063197344541549</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.771023988723755</v>
+        <v>-1.041983366012573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.1485929638147354</v>
+        <v>0.1171334087848663</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.555707454681396</v>
+        <v>1.447597861289978</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.479946613311768</v>
+        <v>-3.771023988723755</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.612989664077759</v>
+        <v>-0.1485929638147354</v>
       </c>
       <c r="B11" t="n">
-        <v>3.036305665969849</v>
+        <v>-2.555707454681396</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.449708700180054</v>
+        <v>-3.479946613311768</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.2490803003311157</v>
+        <v>1.612989664077759</v>
       </c>
       <c r="B12" t="n">
-        <v>-4.406629085540772</v>
+        <v>3.036305665969849</v>
       </c>
       <c r="C12" t="n">
-        <v>2.534785270690918</v>
+        <v>-3.449708700180054</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.09239336848258969</v>
+        <v>-0.2490803003311157</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.676048040390014</v>
+        <v>-4.406629085540772</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.3824016451835632</v>
+        <v>2.534785270690918</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.0197004042565822</v>
+        <v>0.09239336848258969</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.9019425511360168</v>
+        <v>-2.676048040390014</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6754642724990845</v>
+        <v>-0.3824016451835632</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.173791155219078</v>
+        <v>0.0197004042565822</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.06688974797725671</v>
+        <v>-0.9019425511360168</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0691804885864257</v>
+        <v>0.6754642724990845</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.3798054754734039</v>
+        <v>-0.173791155219078</v>
       </c>
       <c r="B16" t="n">
-        <v>0.1803579628467559</v>
+        <v>-0.06688974797725671</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7594582438468933</v>
+        <v>-0.0691804885864257</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.0276416521519422</v>
+        <v>-0.3798054754734039</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.9390525817871094</v>
+        <v>0.1803579628467559</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1821905523538589</v>
+        <v>0.7594582438468933</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.2503020465373993</v>
+        <v>0.0276416521519422</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.1331686228513717</v>
+        <v>-0.9390525817871094</v>
       </c>
       <c r="C18" t="n">
-        <v>0.2674062550067901</v>
+        <v>0.1821905523538589</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.1275181174278259</v>
+        <v>-0.2503020465373993</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1400408595800399</v>
+        <v>-0.1331686228513717</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2041817009449005</v>
+        <v>0.2674062550067901</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.0177150927484035</v>
+        <v>-0.1275181174278259</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.0038179077673703</v>
+        <v>-0.1400408595800399</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0290160998702049</v>
+        <v>0.2041817009449005</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0416915528476238</v>
+        <v>0.0177150927484035</v>
       </c>
       <c r="B21" t="n">
-        <v>0.0540615729987621</v>
+        <v>-0.0038179077673703</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1221730485558509</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>0.0058032199740409</v>
-      </c>
-      <c r="B22" t="n">
-        <v>-0.0656680166721344</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.0862847194075584</v>
+        <v>0.0290160998702049</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-29/gyroscope_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-29/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0209221355617046</v>
+        <v>-0.1624901592731475</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0198531206697225</v>
+        <v>0.1201877370476722</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0239764600992202</v>
+        <v>0.1788308024406433</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0.0395535230636596</v>
+        <v>0.06856962293386459</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0210748501121997</v>
+        <v>-0.06704246252775189</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0496328026056289</v>
+        <v>0.1534798890352249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.0119118718430399</v>
+        <v>0.0235183127224445</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0239764600992202</v>
+        <v>-0.0152716310694813</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0226020142436027</v>
+        <v>0.030695978552103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.0048869219608604</v>
+        <v>0.078801617026329</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0102319931611418</v>
+        <v>0.009010262787342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0267253536731004</v>
+        <v>-0.0384845100343227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-0.1745547503232956</v>
+        <v>0.0911716371774673</v>
       </c>
       <c r="B6" t="n">
-        <v>0.1945605874061584</v>
+        <v>0.0236710291355848</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0557414554059505</v>
+        <v>-0.0128281703218817</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-0.1134682223200798</v>
+        <v>0.0241291765123605</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6869179606437683</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2023491114377975</v>
+        <v>-0.0103847095742821</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-0.1960877478122711</v>
+        <v>0.0088575463742017</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6270532011985779</v>
+        <v>0.0404698215425014</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.06856962293386459</v>
+        <v>0.0618501044809818</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.6217080950737</v>
+        <v>-0.0404698215425014</v>
       </c>
       <c r="B9" t="n">
-        <v>0.2063197344541549</v>
+        <v>-0.0221438650041818</v>
       </c>
       <c r="C9" t="n">
-        <v>-1.041983366012573</v>
+        <v>0.0143553335219621</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.1171334087848663</v>
+        <v>0.0478002056479454</v>
       </c>
       <c r="B10" t="n">
-        <v>1.447597861289978</v>
+        <v>-0.022754730656743</v>
       </c>
       <c r="C10" t="n">
-        <v>-3.771023988723755</v>
+        <v>0.08124507963657369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.1485929638147354</v>
+        <v>0.0325285755097866</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.555707454681396</v>
+        <v>0.0065668015740811</v>
       </c>
       <c r="C11" t="n">
-        <v>-3.479946613311768</v>
+        <v>0.0574213340878486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1.612989664077759</v>
+        <v>-0.0219911485910415</v>
       </c>
       <c r="B12" t="n">
-        <v>3.036305665969849</v>
+        <v>0.0610865242779254</v>
       </c>
       <c r="C12" t="n">
-        <v>-3.449708700180054</v>
+        <v>0.0355829000473022</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.2490803003311157</v>
+        <v>-0.0038179077673703</v>
       </c>
       <c r="B13" t="n">
-        <v>-4.406629085540772</v>
+        <v>0.0641408488154411</v>
       </c>
       <c r="C13" t="n">
-        <v>2.534785270690918</v>
+        <v>-0.0708603709936142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.09239336848258969</v>
+        <v>0.0064140851609408</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.676048040390014</v>
+        <v>-0.0274889357388019</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.3824016451835632</v>
+        <v>-0.0403171069920063</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.0197004042565822</v>
+        <v>0.0209221355617046</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.9019425511360168</v>
+        <v>-0.0198531206697225</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6754642724990845</v>
+        <v>-0.0239764600992202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.173791155219078</v>
+        <v>-0.0395535230636596</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.06688974797725671</v>
+        <v>0.0210748501121997</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.0691804885864257</v>
+        <v>-0.0496328026056289</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.3798054754734039</v>
+        <v>0.0119118718430399</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1803579628467559</v>
+        <v>0.0239764600992202</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7594582438468933</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.0276416521519422</v>
+        <v>0.0048869219608604</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.9390525817871094</v>
+        <v>-0.0102319931611418</v>
       </c>
       <c r="C18" t="n">
-        <v>0.1821905523538589</v>
+        <v>0.0267253536731004</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.2503020465373993</v>
+        <v>-0.1745547503232956</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.1331686228513717</v>
+        <v>0.1945605874061584</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2674062550067901</v>
+        <v>0.0557414554059505</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.1275181174278259</v>
+        <v>-0.1134682223200798</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.1400408595800399</v>
+        <v>0.6869179606437683</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2041817009449005</v>
+        <v>-0.2023491114377975</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.0177150927484035</v>
+        <v>-0.1960877478122711</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.0038179077673703</v>
+        <v>0.6270532011985779</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0290160998702049</v>
+        <v>-0.06856962293386459</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.6217080950737</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2063197344541549</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.041983366012573</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.1171334087848663</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1.447597861289978</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-3.771023988723755</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-0.1485929638147354</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-2.555707454681396</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-3.479946613311768</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>1.612989664077759</v>
+      </c>
+      <c r="B25" t="n">
+        <v>3.036305665969849</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-3.449708700180054</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-0.2490803003311157</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-4.406629085540772</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.534785270690918</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.09239336848258969</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-2.676048040390014</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.3824016451835632</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.0197004042565822</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-0.9019425511360168</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.6754642724990845</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-0.173791155219078</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-0.06688974797725671</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.0691804885864257</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-0.3798054754734039</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.1803579628467559</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7594582438468933</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.0276416521519422</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-0.9390525817871094</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.1821905523538589</v>
       </c>
     </row>
   </sheetData>
